--- a/DataTables/Datas/#Charactor.xlsx
+++ b/DataTables/Datas/#Charactor.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -39,9 +39,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>ResourceID</t>
   </si>
   <si>
+    <t>survivalTime</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -51,6 +57,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>eEntityType</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -63,7 +75,13 @@
     <t>名称</t>
   </si>
   <si>
+    <t>实体类型</t>
+  </si>
+  <si>
     <t>资源路径</t>
+  </si>
+  <si>
+    <t>生存时长</t>
   </si>
 </sst>
 </file>
@@ -994,18 +1012,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,60 +1036,96 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6">
         <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
